--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3019.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3019.xlsx
@@ -354,7 +354,7 @@
         <v>2.141067733073269</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.221894753852847</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3019.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3019.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.170913434834583</v>
+        <v>1.289385795593262</v>
       </c>
       <c r="B1">
-        <v>2.141067733073269</v>
+        <v>1.742064833641052</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.660213828086853</v>
       </c>
       <c r="D1">
-        <v>2.221894753852847</v>
+        <v>4.554900169372559</v>
       </c>
       <c r="E1">
-        <v>1.199791073259473</v>
+        <v>1.351874947547913</v>
       </c>
     </row>
   </sheetData>
